--- a/output/StructureDefinition-cbs-birthsex.xlsx
+++ b/output/StructureDefinition-cbs-birthsex.xlsx
@@ -254,7 +254,7 @@
     <t>Code for sex assigned at birth</t>
   </si>
   <si>
-    <t>https://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.1038</t>
+    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.1038</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="27.96484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.58984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-birthsex.xlsx
+++ b/output/StructureDefinition-cbs-birthsex.xlsx
@@ -254,7 +254,7 @@
     <t>Code for sex assigned at birth</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.1038</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1038</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="27.96484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-birthsex.xlsx
+++ b/output/StructureDefinition-cbs-birthsex.xlsx
@@ -137,7 +137,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Case Based Surveillance Birth Sex Extension</t>
+    <t>Case Based Surveillance Sex Assigned at Birth Extension</t>
   </si>
   <si>
     <t>A code classifying the person's sex assigned at birth.</t>
@@ -422,7 +422,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
